--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -46,6 +46,9 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,76 +67,73 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>pie</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
@@ -145,18 +145,15 @@
     <t>easy</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -169,22 +166,25 @@
     <t>well</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>bought</t>
   </si>
   <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>bought</t>
   </si>
   <si>
     <t>little</t>
@@ -560,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +568,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>62</v>
@@ -629,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4108527131782946</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>0.956989247311828</v>
@@ -679,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3434343434343434</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,21 +721,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>156</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,21 +771,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.871517027863777</v>
+        <v>0.8668730650154799</v>
       </c>
       <c r="L6">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M6">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,21 +797,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,21 +823,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,21 +849,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -851,21 +875,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -877,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6915254237288135</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>810</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>810</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -955,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6619718309859155</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -981,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.630016051364366</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L15">
-        <v>785</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>785</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1007,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>461</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.5882352941176471</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1033,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.5714285714285714</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1059,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5673076923076923</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1085,47 +1109,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>27</v>
-      </c>
-      <c r="K19">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L19">
-        <v>40</v>
-      </c>
-      <c r="M19">
-        <v>40</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5542857142857143</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L22">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5329341317365269</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L23">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1215,47 +1239,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="L24">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>33</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>32</v>
-      </c>
-      <c r="K24">
-        <v>0.5060240963855421</v>
-      </c>
-      <c r="L24">
-        <v>42</v>
-      </c>
-      <c r="M24">
-        <v>42</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.492063492063492</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1267,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4868421052631579</v>
+        <v>0.49</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1293,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1319,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4769230769230769</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1345,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.43</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1371,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.3795180722891566</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1397,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3759398496240601</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1423,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>83</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3651960784313725</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L32">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M32">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1449,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>259</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3618677042801556</v>
+        <v>0.310958904109589</v>
       </c>
       <c r="L33">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="M33">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1475,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>164</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3082191780821918</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L34">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1501,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>505</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.2932330827067669</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1527,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.2805755395683453</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1553,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.271523178807947</v>
+        <v>0.2357373519913886</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1579,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>110</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2631578947368421</v>
+        <v>0.2066225165562914</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1605,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>154</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2432723358449946</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L39">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1631,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>703</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.1960264900662252</v>
+        <v>0.180306905370844</v>
       </c>
       <c r="L40">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M40">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1657,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>607</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.1880877742946709</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L41">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1683,73 +1707,73 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>259</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.1879795396419437</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="L42">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>635</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.1436314363143631</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M43">
         <v>55</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>316</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.1386363636363636</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L44">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1761,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>379</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1180811808118081</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1787,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>239</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.116945107398568</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L46">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1813,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1140350877192982</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L47">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1839,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.09975669099756691</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1865,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>370</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.09965635738831616</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1891,47 +1915,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>262</v>
+        <v>992</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.06902985074626866</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>998</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.05873925501432665</v>
+        <v>0.05350553505535055</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1943,59 +1967,33 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>657</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.05350553505535055</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53">
-        <v>0.04246100519930676</v>
-      </c>
-      <c r="L53">
-        <v>49</v>
-      </c>
-      <c r="M53">
-        <v>52</v>
-      </c>
-      <c r="N53">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O53">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
